--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,37 +43,58 @@
     <t>return</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>guess</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>sticks</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>filter</t>
   </si>
   <si>
     <t>grind</t>
@@ -82,55 +103,52 @@
     <t>plastic</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>sent</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>wo</t>
   </si>
   <si>
     <t>iron</t>
@@ -142,37 +160,40 @@
     <t>lasted</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>thought</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>rust</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>small</t>
@@ -181,12 +202,24 @@
     <t>even</t>
   </si>
   <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -196,12 +229,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -217,25 +250,28 @@
     <t>salad</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wonderful</t>
   </si>
   <si>
     <t>great</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>easy</t>
@@ -599,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K3">
         <v>0.946236559139785</v>
@@ -718,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9595959595959596</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9576271186440678</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0.8847457627118644</v>
+        <v>0.8885448916408669</v>
       </c>
       <c r="L5">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="M5">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9081081081081082</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>0.8839009287925697</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L6">
-        <v>571</v>
+        <v>255</v>
       </c>
       <c r="M6">
-        <v>571</v>
+        <v>255</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9056603773584906</v>
+        <v>0.925</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K7">
         <v>0.8478260869565217</v>
@@ -918,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K8">
         <v>0.8181818181818182</v>
@@ -968,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8740740740740741</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.7662337662337663</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.86</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8493150684931506</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K11">
         <v>0.6027397260273972</v>
@@ -1118,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8490566037735849</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>0.5600000000000001</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8449612403100775</v>
+        <v>0.8740740740740741</v>
       </c>
       <c r="C13">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>0.5405405405405406</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8235294117647058</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>0.5238095238095238</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8169014084507042</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>0.5111111111111111</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8040540540540541</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C16">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>0.5061728395061729</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8018867924528302</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.4791666666666667</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>0.3731942215088282</v>
+        <v>0.4052969502407704</v>
       </c>
       <c r="L18">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="M18">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>781</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7818181818181819</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>0.03698630136986301</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>703</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7701149425287356</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,7 +1572,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20">
+        <v>0.1479452054794521</v>
+      </c>
+      <c r="L20">
+        <v>108</v>
+      </c>
+      <c r="M20">
+        <v>108</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.75</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="C21">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.75</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1596,25 +1656,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7345132743362832</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1622,13 +1682,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7307692307692307</v>
+        <v>0.8</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1640,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1648,13 +1708,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1674,13 +1734,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6590909090909091</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1692,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1700,13 +1760,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6538461538461539</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1718,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1726,13 +1786,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6504854368932039</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1744,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1752,13 +1812,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6363636363636364</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="C29">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1770,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1778,13 +1838,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6153846153846154</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1796,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1804,13 +1864,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6136363636363636</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1822,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1830,13 +1890,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.61</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C32">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1848,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1856,13 +1916,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5576923076923077</v>
+        <v>0.66</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1874,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1882,13 +1942,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5555555555555556</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1900,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1908,13 +1968,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.553072625698324</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C35">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1926,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1934,13 +1994,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4576271186440678</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1952,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1960,13 +2020,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.455</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="C37">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D37">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1978,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1986,13 +2046,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4536082474226804</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2004,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2012,13 +2072,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4426229508196721</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2030,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2038,13 +2098,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4342105263157895</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2056,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2064,13 +2124,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4090909090909091</v>
+        <v>0.5474860335195531</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2082,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2090,13 +2150,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.373015873015873</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2108,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2116,13 +2176,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.345679012345679</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2134,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2142,13 +2202,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3238095238095238</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2160,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2168,13 +2228,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2857142857142857</v>
+        <v>0.485</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2186,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2194,13 +2254,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2776280323450135</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C46">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D46">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2212,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>268</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2220,13 +2280,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2323232323232323</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2238,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2246,13 +2306,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1360544217687075</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2264,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>254</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2272,13 +2332,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1348314606741573</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2290,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2298,13 +2358,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07210884353741497</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2316,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>682</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2324,13 +2384,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03650586701434159</v>
+        <v>0.3692722371967655</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2342,7 +2402,293 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>739</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C52">
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <v>70</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.2781456953642384</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>42</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.2620689655172414</v>
+      </c>
+      <c r="C54">
+        <v>38</v>
+      </c>
+      <c r="D54">
+        <v>38</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="C55">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>68</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.2303370786516854</v>
+      </c>
+      <c r="C56">
+        <v>41</v>
+      </c>
+      <c r="D56">
+        <v>41</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1981981981981982</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.1605351170568562</v>
+      </c>
+      <c r="C58">
+        <v>48</v>
+      </c>
+      <c r="D58">
+        <v>48</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C60">
+        <v>105</v>
+      </c>
+      <c r="D60">
+        <v>105</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.1003911342894394</v>
+      </c>
+      <c r="C61">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.06341463414634146</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
